--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/닥터준 6,7월 영상 카테고리.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/닥터준 6,7월 영상 카테고리.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="196">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -807,14 +807,6 @@
   </si>
   <si>
     <t>10:05~10:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE-&gt;E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(E변경 미반영)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,26 +839,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -878,18 +857,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,12 +893,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -4749,7 +4721,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4998,8 +4970,8 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>196</v>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
@@ -5106,9 +5078,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
